--- a/data/trans_bre/P1402-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Edad-trans_bre.xlsx
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9916586319401023</v>
+        <v>-1.372094914285244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.003048251451264</v>
+        <v>-1.024296563077111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.109770463428394</v>
+        <v>-1.108871318024222</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7421434032203063</v>
+        <v>0.9806626776143601</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.557439945409431</v>
+        <v>1.763925987775508</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>0.4325097260020767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.05746997161011</v>
+        <v>-1.057469971610109</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9895520115948861</v>
@@ -735,7 +735,7 @@
         <v>1.095259760514533</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.8722674585843594</v>
+        <v>-0.8722674585843593</v>
       </c>
     </row>
     <row r="8">
@@ -746,22 +746,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4390206559554833</v>
+        <v>-0.5318183931070934</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.016959208929668</v>
+        <v>-0.9568965398448558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5611363703919937</v>
+        <v>-0.5082710226407415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.304782894583391</v>
+        <v>-3.464279123777493</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6033275088022239</v>
-      </c>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>-0.6472460591342218</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -772,20 +774,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9110690818796282</v>
+        <v>0.9678722914862193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.637628228459007</v>
+        <v>1.657541398025681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.347504650142735</v>
+        <v>1.305925203495496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0</v>
+        <v>-0.05715941149270733</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>3.020710814954833</v>
+        <v>3.028763810903497</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -811,7 +813,7 @@
         <v>-0.7824221331671939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.4313369918821814</v>
+        <v>-0.4313369918821808</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5857032295433732</v>
@@ -823,7 +825,7 @@
         <v>-0.4071380746448539</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1946012624453774</v>
+        <v>-0.1946012624453771</v>
       </c>
     </row>
     <row r="11">
@@ -834,28 +836,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.358924691084558</v>
+        <v>-3.0100775992676</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2808903820640438</v>
+        <v>0.3033540520595025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.028826974088055</v>
+        <v>-2.226522178130985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.006964378833386</v>
+        <v>-1.943268387382718</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8761419513462482</v>
+        <v>-0.8357981064274598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09658913910289341</v>
+        <v>0.04636017715952594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7790596901901696</v>
+        <v>-0.7719880112146451</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6346290428435717</v>
+        <v>-0.6447002190808928</v>
       </c>
     </row>
     <row r="12">
@@ -866,28 +868,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2173947875416977</v>
+        <v>-0.0442180425733691</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.560168681635249</v>
+        <v>2.603433443754856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6426611544779457</v>
+        <v>0.5041084158368914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9393011842676016</v>
+        <v>0.8757341931747261</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.01104828262274798</v>
+        <v>0.1068620307961437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>12.14821843915117</v>
+        <v>13.68223024787217</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5958770015401477</v>
+        <v>0.5107345145663043</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6931746546031211</v>
+        <v>0.647789554872064</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +913,7 @@
         <v>-2.000578866349338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.812299589945485</v>
+        <v>-3.812299589945486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.07482293837680039</v>
@@ -923,7 +925,7 @@
         <v>-0.3632964552412308</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5470812003358785</v>
+        <v>-0.5470812003358786</v>
       </c>
     </row>
     <row r="14">
@@ -934,28 +936,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.68452575181776</v>
+        <v>-2.656474762869132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.063289198944551</v>
+        <v>-3.108839030108271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.443390024469926</v>
+        <v>-4.798482976473781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.003271347351902</v>
+        <v>-6.154489918373354</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4618256676752818</v>
+        <v>-0.4838758651241101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5523803647731547</v>
+        <v>-0.5775973340640939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6325601284390703</v>
+        <v>-0.6703327901857026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.695582189796687</v>
+        <v>-0.6975693919394067</v>
       </c>
     </row>
     <row r="15">
@@ -966,28 +968,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.252341371910288</v>
+        <v>2.348652767711594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.625076108956253</v>
+        <v>1.656834912413192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2945075582080943</v>
+        <v>0.1344260277195368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.789078372420573</v>
+        <v>-1.704128473569648</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8045912053348632</v>
+        <v>0.7405171877600626</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.609646582567362</v>
+        <v>0.5281777574953285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1035243543111699</v>
+        <v>0.05682382292111697</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3092934775468693</v>
+        <v>-0.3070651221921997</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1013,7 @@
         <v>-0.7939298681917464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.011088615809735</v>
+        <v>-5.011088615809728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07213597984095631</v>
@@ -1023,7 +1025,7 @@
         <v>-0.05977117460747943</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3887212656594031</v>
+        <v>-0.3887212656594027</v>
       </c>
     </row>
     <row r="17">
@@ -1034,28 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.815410383012681</v>
+        <v>-3.862075538206757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.104362356528172</v>
+        <v>-4.912707464038075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.767465909242731</v>
+        <v>-5.127590048480908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.282513576548519</v>
+        <v>-7.872669251379258</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2756877756270296</v>
+        <v>-0.2983467491365002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3620535810801498</v>
+        <v>-0.3414874500373621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3130690546225764</v>
+        <v>-0.3345089520720966</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5512937708249549</v>
+        <v>-0.5337408209161868</v>
       </c>
     </row>
     <row r="18">
@@ -1066,28 +1068,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.275505392019888</v>
+        <v>5.017712986995932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.205564278199127</v>
+        <v>3.786887271206968</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.555538322704737</v>
+        <v>3.426240301136452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.226954014665866</v>
+        <v>-1.67480777291642</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5415806109288105</v>
+        <v>0.5211578916357392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4421005521165202</v>
+        <v>0.3830696046481037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3226357361643651</v>
+        <v>0.3098240404512676</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1941345917645889</v>
+        <v>-0.1584816246306114</v>
       </c>
     </row>
     <row r="19">
@@ -1111,7 +1113,7 @@
         <v>-5.306829268766003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-5.12358565977222</v>
+        <v>-5.123585659772223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1410346132884439</v>
@@ -1123,7 +1125,7 @@
         <v>-0.1880440813375459</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2315010414668392</v>
+        <v>-0.2315010414668393</v>
       </c>
     </row>
     <row r="20">
@@ -1134,28 +1136,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.106345589500326</v>
+        <v>-2.949171580484426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.29874061667594</v>
+        <v>-12.90349825921792</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-12.67589125729227</v>
+        <v>-11.5976525758601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-9.247083724128537</v>
+        <v>-9.337407416900158</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1423268533648704</v>
+        <v>-0.1227372697693023</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3519800001975162</v>
+        <v>-0.3670214617461981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4013488612802412</v>
+        <v>-0.3760787730218054</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3771428457795913</v>
+        <v>-0.3833329029528825</v>
       </c>
     </row>
     <row r="21">
@@ -1166,28 +1168,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.093746167724397</v>
+        <v>9.026315085979833</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.730873246563121</v>
+        <v>1.669861237880869</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9299422101790368</v>
+        <v>1.207560754682555</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.3311469661466003</v>
+        <v>-0.8045672127855589</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5728658888247208</v>
+        <v>0.5664794869479868</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1012127544594936</v>
+        <v>0.05539880084427141</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03434401331769029</v>
+        <v>0.0395393335271609</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.02589124249230585</v>
+        <v>-0.04143448396772483</v>
       </c>
     </row>
     <row r="22">
@@ -1211,7 +1213,7 @@
         <v>-5.922871558137366</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.9315768399657365</v>
+        <v>-0.9315768399657309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06904257039528104</v>
@@ -1223,7 +1225,7 @@
         <v>-0.1726107266996486</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.03139379529719934</v>
+        <v>-0.03139379529719916</v>
       </c>
     </row>
     <row r="23">
@@ -1234,28 +1236,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.900832736346759</v>
+        <v>-5.887397291013791</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.693600999483396</v>
+        <v>-4.68097621836002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-13.50736064131858</v>
+        <v>-13.44231705297732</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.300477152711966</v>
+        <v>-6.400669456621384</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2423902687789874</v>
+        <v>-0.2388895052236317</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1405736294766439</v>
+        <v>-0.141478534247078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3461100932321736</v>
+        <v>-0.3544507327098051</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1900712493531461</v>
+        <v>-0.1890167236897909</v>
       </c>
     </row>
     <row r="24">
@@ -1266,28 +1268,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.091862053228384</v>
+        <v>8.415931833743077</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.59180166110772</v>
+        <v>11.09610370204858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.546198819347723</v>
+        <v>1.519474052285175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.209019637231175</v>
+        <v>4.390814677955236</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5726845055840372</v>
+        <v>0.5030445357382398</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4295062036554764</v>
+        <v>0.4749184336278472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05063090101786925</v>
+        <v>0.05034873666056506</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1603155767207204</v>
+        <v>0.1666087571973464</v>
       </c>
     </row>
     <row r="25">
@@ -1311,7 +1313,7 @@
         <v>-0.3867964775495711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-1.488587795418173</v>
+        <v>-1.488587795418174</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1985130720634242</v>
@@ -1323,7 +1325,7 @@
         <v>-0.04409985258740275</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1598938452210607</v>
+        <v>-0.1598938452210609</v>
       </c>
     </row>
     <row r="26">
@@ -1334,28 +1336,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.07718657270353292</v>
+        <v>-0.0007360622200036495</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.1639766876976408</v>
+        <v>-0.2267833149609997</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.983642874450155</v>
+        <v>-1.735075531164425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.881634321833509</v>
+        <v>-2.670451585719348</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.008555191444737938</v>
+        <v>0.0007485658029931595</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02026078349674085</v>
+        <v>-0.02939839498546132</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2118683207635292</v>
+        <v>-0.1860183766658149</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2817169448875185</v>
+        <v>-0.2640747528055437</v>
       </c>
     </row>
     <row r="27">
@@ -1366,28 +1368,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.18287150955579</v>
+        <v>2.252140859785278</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.471082675164852</v>
+        <v>2.56749418471044</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9123697693209081</v>
+        <v>0.9912166174817275</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.3803016030473732</v>
+        <v>-0.3940544357277033</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4298690840248303</v>
+        <v>0.4403981079057042</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3594339211334102</v>
+        <v>0.3701756156136768</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1108599524239427</v>
+        <v>0.1184848296036898</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04583636840150284</v>
+        <v>-0.0452155065555826</v>
       </c>
     </row>
     <row r="28">
